--- a/src/test/resources/assignment.xlsx
+++ b/src/test/resources/assignment.xlsx
@@ -202,9 +202,6 @@
     <t>The credentials provided are incorrect</t>
   </si>
   <si>
-    <t>Please enter a valid email address.</t>
-  </si>
-  <si>
     <t>ExpectedMessage</t>
   </si>
   <si>
@@ -213,12 +210,15 @@
   <si>
     <t>PassWord</t>
   </si>
+  <si>
+    <t>Please enter a valid email address.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -254,6 +254,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,10 +279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -292,8 +300,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -28599,7 +28611,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28614,23 +28626,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5"/>
@@ -28694,10 +28706,14 @@
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>